--- a/data/industry/TrendForce/TFT LCD.xlsx
+++ b/data/industry/TrendForce/TFT LCD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9049A2AE-881E-4500-B2D7-CD8367EBCE6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01EF0C7-5A5F-4945-A003-438445496B14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="36">
   <si>
     <t>Large Size Panel</t>
   </si>
@@ -173,10 +173,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -249,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -258,12 +259,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -286,6 +281,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -573,30 +578,30 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="25" width="9" style="13"/>
-    <col min="26" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="11.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="25" width="9" style="11"/>
+    <col min="26" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -635,154 +640,154 @@
       <c r="P1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="8" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>46042</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>46042</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>0.75694444444444453</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>115</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>125</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <v>122</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>121</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <v>57.6</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <v>65.8</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <v>63</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="6">
         <v>63</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="6">
         <v>26.3</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="6">
         <v>28</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="6">
         <v>26.8</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="6">
         <v>26.9</v>
       </c>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -804,192 +809,222 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:H2"/>
+      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="25" width="9" style="13"/>
-    <col min="26" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="11.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="11.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="25" width="9" style="11"/>
+    <col min="26" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="8" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>46022</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>46022</v>
       </c>
-      <c r="C3" s="11">
-        <v>0.75694444444444453</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="9">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="16">
         <v>1.2</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="16">
         <v>1.7</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="16">
         <v>1.4</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="16">
         <v>1.4</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="16">
         <v>5.7</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="16">
         <v>8.5</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="16">
         <v>6.8</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="16">
         <v>6.9</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
+      <c r="A4" s="8">
+        <v>46052</v>
+      </c>
+      <c r="B4" s="8">
+        <v>46052</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="I4" s="16">
+        <v>5.7</v>
+      </c>
+      <c r="J4" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="K4" s="16">
+        <v>6.7</v>
+      </c>
+      <c r="L4" s="16">
+        <v>6.8</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1008,267 +1043,318 @@
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="25" width="9" style="13"/>
-    <col min="26" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="11.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="24" width="8.875" style="17" customWidth="1"/>
+    <col min="25" max="25" width="9" style="11"/>
+    <col min="26" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="6"/>
+      <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="8" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="8"/>
+      <c r="Y2" s="6"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>46022</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>46022</v>
       </c>
-      <c r="C3" s="11">
-        <v>0.75694444444444453</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="9">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="16">
         <v>72.8</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="16">
         <v>72.8</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="16">
         <v>72.8</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="16">
         <v>72</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="16">
         <v>91.4</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="16">
         <v>130</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="16">
         <v>94.4</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="16">
         <v>94</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="16">
         <v>246.7</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="16">
         <v>305.8</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="16">
         <v>293.7</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="16">
         <v>297.5</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="16">
         <v>362.2</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="16">
         <v>410.1</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="16">
         <v>387.3</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="16">
         <v>395.3</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="16">
         <v>149.19999999999999</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="16">
         <v>195.1</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="16">
         <v>160.9</v>
       </c>
-      <c r="X3" s="8">
+      <c r="X3" s="16">
         <v>160.4</v>
       </c>
-      <c r="Y3" s="8"/>
+      <c r="Y3" s="6"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
+      <c r="A4" s="8">
+        <v>46052</v>
+      </c>
+      <c r="B4" s="8">
+        <v>46052</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="16">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F4" s="16">
+        <v>736</v>
+      </c>
+      <c r="G4" s="16">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="H4" s="16">
+        <v>72.8</v>
+      </c>
+      <c r="I4" s="16">
+        <v>94.9</v>
+      </c>
+      <c r="J4" s="16">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="K4" s="16">
+        <v>96.9</v>
+      </c>
+      <c r="L4" s="16">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="M4" s="16">
+        <v>210</v>
+      </c>
+      <c r="N4" s="16">
+        <v>309.3</v>
+      </c>
+      <c r="O4" s="16">
+        <v>283.3</v>
+      </c>
+      <c r="P4" s="16">
+        <v>293.7</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>375</v>
+      </c>
+      <c r="R4" s="16">
+        <v>413.8</v>
+      </c>
+      <c r="S4" s="16">
+        <v>391.2</v>
+      </c>
+      <c r="T4" s="16">
+        <v>387.3</v>
+      </c>
+      <c r="U4" s="16">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="V4" s="16">
+        <v>193.2</v>
+      </c>
+      <c r="W4" s="16">
+        <v>161.9</v>
+      </c>
+      <c r="X4" s="16">
+        <v>160.9</v>
+      </c>
+      <c r="Y4" s="6"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1290,67 +1376,67 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="15"/>
-    <col min="7" max="7" width="11.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="9" style="13"/>
-    <col min="26" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="11.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="13"/>
+    <col min="7" max="7" width="11.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="25" width="9" style="11"/>
+    <col min="26" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>33</v>
       </c>
       <c r="O1" s="2"/>
@@ -1363,166 +1449,166 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
-      <c r="Y1" s="6"/>
+      <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="14" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>45962</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9">
         <v>0.75694444444444453</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>24118</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>738</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="12">
         <v>18186</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <v>1184</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="12">
         <v>13817</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="12">
         <v>2638</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="12">
         <v>20226</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="12">
         <v>15428</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="12">
         <v>76347</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="12">
         <v>19987</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>45992</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>46042</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>0.75694444444444453</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>26154</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>786</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="12">
         <v>20229</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="12">
         <v>1306</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="12">
         <v>14924</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="12">
         <v>2849</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="12">
         <v>21536</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="12">
         <v>16649</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="12">
         <v>82844</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="12">
         <v>21591</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/data/industry/TrendForce/TFT LCD.xlsx
+++ b/data/industry/TrendForce/TFT LCD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/AlternativeData/data/industry/TrendForce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01EF0C7-5A5F-4945-A003-438445496B14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE471A39-DA94-934F-B0CC-836817FC4B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16900" yWindow="780" windowWidth="19220" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Large Size Panel" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="36">
   <si>
     <t>Large Size Panel</t>
   </si>
@@ -174,23 +174,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -203,7 +203,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -246,7 +246,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -259,42 +259,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -575,33 +575,33 @@
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
+      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:25" s="5" customFormat="1">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -650,11 +650,11 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14"/>
+    <row r="2" spans="1:25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="8">
         <v>46042</v>
       </c>
@@ -709,7 +709,7 @@
         <v>46042</v>
       </c>
       <c r="C3" s="9">
-        <v>0.75694444444444453</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>27</v>
@@ -760,21 +760,55 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+    <row r="4" spans="1:25">
+      <c r="A4" s="8">
+        <v>46077</v>
+      </c>
+      <c r="B4" s="8">
+        <v>46077</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6">
+        <v>117</v>
+      </c>
+      <c r="F4" s="6">
+        <v>127</v>
+      </c>
+      <c r="G4" s="6">
+        <v>124</v>
+      </c>
+      <c r="H4" s="6">
+        <v>122</v>
+      </c>
+      <c r="I4" s="6">
+        <v>57.6</v>
+      </c>
+      <c r="J4" s="6">
+        <v>65.8</v>
+      </c>
+      <c r="K4" s="6">
+        <v>63</v>
+      </c>
+      <c r="L4" s="6">
+        <v>63</v>
+      </c>
+      <c r="M4" s="6">
+        <v>26.2</v>
+      </c>
+      <c r="N4" s="6">
+        <v>27.9</v>
+      </c>
+      <c r="O4" s="6">
+        <v>26.7</v>
+      </c>
+      <c r="P4" s="6">
+        <v>26.8</v>
+      </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -785,7 +819,7 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
     </row>
@@ -812,55 +846,55 @@
       <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="11.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="11.5" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:25" s="5" customFormat="1">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="2"/>
@@ -877,33 +911,33 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="16" t="s">
+    <row r="2" spans="1:25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="14" t="s">
         <v>31</v>
       </c>
       <c r="M2" s="6"/>
@@ -920,7 +954,7 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="8">
         <v>46022</v>
       </c>
@@ -933,28 +967,28 @@
       <c r="D3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>1.2</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="14">
         <v>1.7</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="14">
         <v>1.4</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="14">
         <v>1.4</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="14">
         <v>5.7</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="14">
         <v>8.5</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="14">
         <v>6.8</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="14">
         <v>6.9</v>
       </c>
       <c r="M3" s="6"/>
@@ -971,7 +1005,7 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="8">
         <v>46052</v>
       </c>
@@ -984,28 +1018,28 @@
       <c r="D4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>1.2</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <v>1.7</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <v>1.4</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="14">
         <v>1.4</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="14">
         <v>5.7</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="14">
         <v>8.5</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="14">
         <v>6.7</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="14">
         <v>6.8</v>
       </c>
       <c r="M4" s="6"/>
@@ -1022,7 +1056,7 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
     </row>
@@ -1049,160 +1083,160 @@
       <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="24" width="8.875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="24" width="8.83203125" style="15" customWidth="1"/>
     <col min="25" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:25" s="5" customFormat="1">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="16" t="s">
+    <row r="2" spans="1:25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="14" t="s">
         <v>31</v>
       </c>
       <c r="Y2" s="6"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="8">
         <v>46022</v>
       </c>
@@ -1215,69 +1249,69 @@
       <c r="D3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>72.8</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="14">
         <v>72.8</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="14">
         <v>72.8</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="14">
         <v>72</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="14">
         <v>91.4</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="14">
         <v>130</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="14">
         <v>94.4</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="14">
         <v>94</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="14">
         <v>246.7</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="14">
         <v>305.8</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="14">
         <v>293.7</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="14">
         <v>297.5</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="14">
         <v>362.2</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="14">
         <v>410.1</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="14">
         <v>387.3</v>
       </c>
-      <c r="T3" s="16">
+      <c r="T3" s="14">
         <v>395.3</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="14">
         <v>149.19999999999999</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="14">
         <v>195.1</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="14">
         <v>160.9</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3" s="14">
         <v>160.4</v>
       </c>
       <c r="Y3" s="6"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="8">
         <v>46052</v>
       </c>
@@ -1290,69 +1324,69 @@
       <c r="D4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>73.599999999999994</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <v>736</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <v>73.599999999999994</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="14">
         <v>72.8</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="14">
         <v>94.9</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="14">
         <v>142.30000000000001</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="14">
         <v>96.9</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="14">
         <v>64.400000000000006</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="14">
         <v>210</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="14">
         <v>309.3</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="14">
         <v>283.3</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="14">
         <v>293.7</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="14">
         <v>375</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="14">
         <v>413.8</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="14">
         <v>391.2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="14">
         <v>387.3</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="14">
         <v>149.80000000000001</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="14">
         <v>193.2</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="14">
         <v>161.9</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="14">
         <v>160.9</v>
       </c>
       <c r="Y4" s="6"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
     </row>
@@ -1379,34 +1413,34 @@
       <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="13"/>
-    <col min="7" max="7" width="11.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:25" s="5" customFormat="1">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="12" t="s">
@@ -1451,11 +1485,11 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14"/>
+    <row r="2" spans="1:25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="12" t="s">
         <v>34</v>
       </c>
@@ -1498,7 +1532,7 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="8">
         <v>45962</v>
       </c>
@@ -1551,7 +1585,7 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="8">
         <v>45992</v>
       </c>
@@ -1606,7 +1640,7 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
     </row>
@@ -1630,20 +1664,20 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="27.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,19 +1685,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1671,13 +1705,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1685,31 +1719,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1717,25 +1751,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>18</v>

--- a/data/industry/TrendForce/TFT LCD.xlsx
+++ b/data/industry/TrendForce/TFT LCD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/AlternativeData/data/industry/TrendForce/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE471A39-DA94-934F-B0CC-836817FC4B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8BC208-7DAF-4E8C-A708-0F0AF6150FCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16900" yWindow="780" windowWidth="19220" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16905" yWindow="780" windowWidth="19215" windowHeight="20925" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Large Size Panel" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="36">
   <si>
     <t>Large Size Panel</t>
   </si>
@@ -174,23 +174,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -203,7 +203,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -246,11 +246,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -259,42 +259,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -574,24 +577,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9EFAE0-DDA9-4895-A6E7-1B8A3730BEB2}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
@@ -650,7 +653,7 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
@@ -701,7 +704,7 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>46042</v>
       </c>
@@ -760,7 +763,7 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>46077</v>
       </c>
@@ -819,7 +822,7 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
     </row>
@@ -843,16 +846,16 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="11.5" style="15" bestFit="1" customWidth="1"/>
@@ -860,7 +863,7 @@
     <col min="26" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
@@ -911,7 +914,7 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
@@ -954,7 +957,7 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>46022</v>
       </c>
@@ -1005,7 +1008,7 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>46052</v>
       </c>
@@ -1056,9 +1059,43 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>46079</v>
+      </c>
+      <c r="B5" s="8">
+        <v>46079</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1.7</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="I5" s="15">
+        <v>5.7</v>
+      </c>
+      <c r="J5" s="15">
+        <v>8.5</v>
+      </c>
+      <c r="K5" s="15">
+        <v>6.6</v>
+      </c>
+      <c r="L5" s="15">
+        <v>6.7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1074,27 +1111,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F72FC54-CD8C-473D-B869-CF3F9FC5C7CC}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
+      <selection pane="bottomRight" activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="24" width="8.83203125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="24" width="8.875" style="15" customWidth="1"/>
     <col min="25" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
@@ -1169,7 +1206,7 @@
       </c>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
@@ -1236,12 +1273,12 @@
       </c>
       <c r="Y2" s="6"/>
     </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="8">
-        <v>46022</v>
-      </c>
-      <c r="B3" s="8">
-        <v>46022</v>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>45991</v>
+      </c>
+      <c r="B3" s="18">
+        <v>45991</v>
       </c>
       <c r="C3" s="9">
         <v>0.61111111111111105</v>
@@ -1250,73 +1287,47 @@
         <v>27</v>
       </c>
       <c r="E3" s="14">
-        <v>72.8</v>
+        <v>72</v>
       </c>
       <c r="F3" s="14">
-        <v>72.8</v>
+        <v>72</v>
       </c>
       <c r="G3" s="14">
-        <v>72.8</v>
-      </c>
-      <c r="H3" s="14">
         <v>72</v>
       </c>
-      <c r="I3" s="14">
-        <v>91.4</v>
-      </c>
-      <c r="J3" s="14">
-        <v>130</v>
-      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="14">
-        <v>94.4</v>
-      </c>
-      <c r="L3" s="14">
         <v>94</v>
       </c>
-      <c r="M3" s="14">
-        <v>246.7</v>
-      </c>
-      <c r="N3" s="14">
-        <v>305.8</v>
-      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
       <c r="O3" s="14">
-        <v>293.7</v>
-      </c>
-      <c r="P3" s="14">
         <v>297.5</v>
       </c>
-      <c r="Q3" s="14">
-        <v>362.2</v>
-      </c>
-      <c r="R3" s="14">
-        <v>410.1</v>
-      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
       <c r="S3" s="14">
-        <v>387.3</v>
-      </c>
-      <c r="T3" s="14">
         <v>395.3</v>
       </c>
-      <c r="U3" s="14">
-        <v>149.19999999999999</v>
-      </c>
-      <c r="V3" s="14">
-        <v>195.1</v>
-      </c>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
       <c r="W3" s="14">
-        <v>160.9</v>
-      </c>
-      <c r="X3" s="14">
         <v>160.4</v>
       </c>
+      <c r="X3" s="14"/>
       <c r="Y3" s="6"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
-        <v>46052</v>
+        <v>46022</v>
       </c>
       <c r="B4" s="8">
-        <v>46052</v>
+        <v>46022</v>
       </c>
       <c r="C4" s="9">
         <v>0.61111111111111105</v>
@@ -1325,70 +1336,215 @@
         <v>27</v>
       </c>
       <c r="E4" s="14">
+        <v>72.8</v>
+      </c>
+      <c r="F4" s="14">
+        <v>72.8</v>
+      </c>
+      <c r="G4" s="14">
+        <v>72.8</v>
+      </c>
+      <c r="H4" s="14">
+        <v>72</v>
+      </c>
+      <c r="I4" s="14">
+        <v>91.4</v>
+      </c>
+      <c r="J4" s="14">
+        <v>130</v>
+      </c>
+      <c r="K4" s="14">
+        <v>94.4</v>
+      </c>
+      <c r="L4" s="14">
+        <v>94</v>
+      </c>
+      <c r="M4" s="14">
+        <v>246.7</v>
+      </c>
+      <c r="N4" s="14">
+        <v>305.8</v>
+      </c>
+      <c r="O4" s="14">
+        <v>293.7</v>
+      </c>
+      <c r="P4" s="14">
+        <v>297.5</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>362.2</v>
+      </c>
+      <c r="R4" s="14">
+        <v>410.1</v>
+      </c>
+      <c r="S4" s="14">
+        <v>387.3</v>
+      </c>
+      <c r="T4" s="14">
+        <v>395.3</v>
+      </c>
+      <c r="U4" s="14">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="V4" s="14">
+        <v>195.1</v>
+      </c>
+      <c r="W4" s="14">
+        <v>160.9</v>
+      </c>
+      <c r="X4" s="14">
+        <v>160.4</v>
+      </c>
+      <c r="Y4" s="6"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>46052</v>
+      </c>
+      <c r="B5" s="8">
+        <v>46052</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="14">
         <v>73.599999999999994</v>
       </c>
-      <c r="F4" s="14">
-        <v>736</v>
-      </c>
-      <c r="G4" s="14">
+      <c r="F5" s="14">
         <v>73.599999999999994</v>
       </c>
-      <c r="H4" s="14">
+      <c r="G5" s="14">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="H5" s="14">
         <v>72.8</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I5" s="14">
         <v>94.9</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J5" s="14">
         <v>142.30000000000001</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K5" s="14">
         <v>96.9</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L5" s="14">
         <v>64.400000000000006</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M5" s="14">
         <v>210</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N5" s="14">
         <v>309.3</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O5" s="14">
         <v>283.3</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P5" s="14">
         <v>293.7</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="Q5" s="14">
         <v>375</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R5" s="14">
         <v>413.8</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S5" s="14">
         <v>391.2</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T5" s="14">
         <v>387.3</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U5" s="14">
         <v>149.80000000000001</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V5" s="14">
         <v>193.2</v>
       </c>
-      <c r="W4" s="14">
+      <c r="W5" s="14">
         <v>161.9</v>
       </c>
-      <c r="X4" s="14">
+      <c r="X5" s="14">
         <v>160.9</v>
       </c>
-      <c r="Y4" s="6"/>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="Y5" s="6"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>46079</v>
+      </c>
+      <c r="B6" s="8">
+        <v>46079</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="15">
+        <v>74.2</v>
+      </c>
+      <c r="F6" s="15">
+        <v>74.2</v>
+      </c>
+      <c r="G6" s="15">
+        <v>74.2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="I6" s="15">
+        <v>97.3</v>
+      </c>
+      <c r="J6" s="15">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="K6" s="15">
+        <v>99.4</v>
+      </c>
+      <c r="L6" s="15">
+        <v>96.9</v>
+      </c>
+      <c r="M6" s="15">
+        <v>199.4</v>
+      </c>
+      <c r="N6" s="15">
+        <v>326</v>
+      </c>
+      <c r="O6" s="15">
+        <v>298.10000000000002</v>
+      </c>
+      <c r="P6" s="15">
+        <v>283.3</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>376.4</v>
+      </c>
+      <c r="R6" s="15">
+        <v>418.4</v>
+      </c>
+      <c r="S6" s="15">
+        <v>406.3</v>
+      </c>
+      <c r="T6" s="15">
+        <v>391.2</v>
+      </c>
+      <c r="U6" s="15">
+        <v>152</v>
+      </c>
+      <c r="V6" s="15">
+        <v>199.1</v>
+      </c>
+      <c r="W6" s="15">
+        <v>161.80000000000001</v>
+      </c>
+      <c r="X6" s="15">
+        <v>161.9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1406,31 +1562,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C5E87-C6BF-4E93-9B61-00AC746AD42A}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="13"/>
-    <col min="7" max="7" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.625" style="13" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
@@ -1485,7 +1641,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
@@ -1532,7 +1688,7 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>45962</v>
       </c>
@@ -1585,7 +1741,7 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>45992</v>
       </c>
@@ -1640,9 +1796,49 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>45658</v>
+      </c>
+      <c r="B5" s="8">
+        <v>46079</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="13">
+        <v>21091</v>
+      </c>
+      <c r="F5" s="13">
+        <v>591</v>
+      </c>
+      <c r="G5" s="13">
+        <v>17998</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1163</v>
+      </c>
+      <c r="I5" s="13">
+        <v>14139</v>
+      </c>
+      <c r="J5" s="13">
+        <v>2690</v>
+      </c>
+      <c r="K5" s="13">
+        <v>22008</v>
+      </c>
+      <c r="L5" s="13">
+        <v>16619</v>
+      </c>
+      <c r="M5" s="13">
+        <v>75236</v>
+      </c>
+      <c r="N5" s="13">
+        <v>21064</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1664,20 +1860,20 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1685,19 +1881,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1705,13 +1901,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1719,31 +1915,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1751,25 +1947,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>18</v>
